--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3162.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3162.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.819361491030594</v>
+        <v>0.7823839783668518</v>
       </c>
       <c r="B1">
-        <v>2.022860285156668</v>
+        <v>1.150339961051941</v>
       </c>
       <c r="C1">
-        <v>2.089382908854684</v>
+        <v>2.332760334014893</v>
       </c>
       <c r="D1">
-        <v>2.686668856496016</v>
+        <v>3.868865966796875</v>
       </c>
       <c r="E1">
-        <v>4.232259881181625</v>
+        <v>1.888971090316772</v>
       </c>
     </row>
   </sheetData>
